--- a/xlsx/柏拉圖_intext.xlsx
+++ b/xlsx/柏拉圖_intext.xlsx
@@ -29,7 +29,7 @@
     <t>柏拉圖 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_政治學_柏拉圖</t>
+    <t>体育运动_体育运动_古罗马_柏拉圖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%93%B2%E5%AD%A6%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -7918,7 +7918,7 @@
         <v>98</v>
       </c>
       <c r="G49" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -9948,7 +9948,7 @@
         <v>228</v>
       </c>
       <c r="G119" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -22331,7 +22331,7 @@
         <v>12</v>
       </c>
       <c r="G546" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H546" t="s">
         <v>4</v>
